--- a/GameData/Excel/content_chapter.xlsx
+++ b/GameData/Excel/content_chapter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B45E9-DB5F-44D3-88A2-9E98A11B62E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618FAFFF-74DF-44E6-BD6C-76752B788D81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9696" yWindow="11220" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="9690" yWindow="11220" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="content_chapter" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>int</t>
   </si>
@@ -43,45 +43,57 @@
     <t>string</t>
   </si>
   <si>
+    <t>chapter_id</t>
+  </si>
+  <si>
+    <t>stage_id</t>
+  </si>
+  <si>
+    <t>stage 나열 순서</t>
+  </si>
+  <si>
+    <t>챕터 대표 이미지 *추후 구현</t>
+  </si>
+  <si>
+    <t>챕터 이름 *추후 구현</t>
+  </si>
+  <si>
+    <t>챕터 설명 *추후 구현</t>
+  </si>
+  <si>
+    <t>#chapter_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#chapter_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#chapter_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+  </si>
+  <si>
+    <t>1차_테스트_1막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11, 12, 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001, 10002, 10103, 10004, 10005, 10206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>test맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chapter_id</t>
-  </si>
-  <si>
-    <t>stage_id</t>
-  </si>
-  <si>
-    <t>stage 나열 순서</t>
-  </si>
-  <si>
-    <t>챕터 대표 이미지 *추후 구현</t>
-  </si>
-  <si>
-    <t>챕터 이름 *추후 구현</t>
-  </si>
-  <si>
-    <t>챕터 설명 *추후 구현</t>
-  </si>
-  <si>
-    <t>#chapter_img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#chapter_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#chapter_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11, 12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모</t>
+    <t>#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -223,9 +235,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,7 +275,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -369,7 +381,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -523,63 +535,63 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="47" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" style="8" customWidth="1"/>
-    <col min="5" max="6" width="22.19921875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="4" max="4" width="22.25" style="8" customWidth="1"/>
+    <col min="5" max="6" width="22.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>3</v>
@@ -594,75 +606,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameData/Excel/content_chapter.xlsx
+++ b/GameData/Excel/content_chapter.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618FAFFF-74DF-44E6-BD6C-76752B788D81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB17DB7A-A146-4B0F-AA8C-48F907785D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="11220" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="12024" yWindow="7512" windowWidth="25740" windowHeight="13572" activeTab="2" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="content_chapter" sheetId="1" r:id="rId1"/>
+    <sheet name="content_map" sheetId="2" r:id="rId2"/>
+    <sheet name="content_stage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>int</t>
   </si>
@@ -94,6 +96,264 @@
   <si>
     <t>#2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_103</t>
+  </si>
+  <si>
+    <t>map_name_103</t>
+  </si>
+  <si>
+    <t>temp_stage_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_stage_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_102</t>
+  </si>
+  <si>
+    <t>map_name_102</t>
+  </si>
+  <si>
+    <t>20003,20101,20003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_elite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test맵_엘리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002,20003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test맵_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001,20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test맵_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1020601</t>
+  </si>
+  <si>
+    <t>map_name_1020601</t>
+  </si>
+  <si>
+    <t>20003,20201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_6장_보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1000501</t>
+  </si>
+  <si>
+    <t>map_name_1000501</t>
+  </si>
+  <si>
+    <t>20001,20001,20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_5장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1000401</t>
+  </si>
+  <si>
+    <t>map_name_1000401</t>
+  </si>
+  <si>
+    <t>20001,20002,20003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_4장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1010301</t>
+  </si>
+  <si>
+    <t>map_name_1010301</t>
+  </si>
+  <si>
+    <t>20101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_3장_엘리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1000201</t>
+  </si>
+  <si>
+    <t>map_name_1000201</t>
+  </si>
+  <si>
+    <t>1차_테스트_1막_2장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1000101</t>
+  </si>
+  <si>
+    <t>map_name_1000101</t>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_1장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:map_type</t>
+  </si>
+  <si>
+    <t>맵 설명
+- 선택지 표시 용</t>
+  </si>
+  <si>
+    <t>맵 이름
+- 선택지 표시 용</t>
+  </si>
+  <si>
+    <t>맵 대표 이미지
+- 선택지 표시 용</t>
+  </si>
+  <si>
+    <t>맵 배경 리소스</t>
+  </si>
+  <si>
+    <t>선택형 보상 ID</t>
+  </si>
+  <si>
+    <t>보상 ID</t>
+  </si>
+  <si>
+    <t>등장 액터 ID</t>
+  </si>
+  <si>
+    <t>맵 타입</t>
+  </si>
+  <si>
+    <t>map_desc</t>
+  </si>
+  <si>
+    <t>map_name</t>
+  </si>
+  <si>
+    <t>map_img</t>
+  </si>
+  <si>
+    <t>map_bg</t>
+  </si>
+  <si>
+    <t>select_reward_id</t>
+  </si>
+  <si>
+    <t>reward_id</t>
+  </si>
+  <si>
+    <t>actor_id</t>
+  </si>
+  <si>
+    <t>map_type</t>
+  </si>
+  <si>
+    <t>map_id</t>
+  </si>
+  <si>
+    <t>102, 103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test맵_보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101, 102, 103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_group_2에서 선택지로 제시될 개수</t>
+  </si>
+  <si>
+    <t>등장할 랜덤 풀의 map_id 그룹</t>
+  </si>
+  <si>
+    <t>map_group_1에서 선택지로 제시될 개수</t>
+  </si>
+  <si>
+    <t>advent_cnt_2</t>
+  </si>
+  <si>
+    <t>map_group_2</t>
+  </si>
+  <si>
+    <t>advent_cnt_1</t>
+  </si>
+  <si>
+    <t>map_group_1</t>
   </si>
 </sst>
 </file>
@@ -185,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +477,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -235,9 +507,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,7 +547,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -381,7 +653,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,7 +795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,22 +805,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" style="3" customWidth="1"/>
     <col min="3" max="3" width="47" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="8" customWidth="1"/>
-    <col min="5" max="6" width="22.25" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="3"/>
+    <col min="4" max="4" width="22.19921875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="22.19921875" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -568,7 +840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -586,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -606,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -617,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -628,55 +900,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
@@ -685,4 +957,662 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A373D0E7-07E9-4504-A33C-B276A2B33DD8}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="3" customWidth="1"/>
+    <col min="7" max="10" width="19.3984375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1000101</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1000201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1010301</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1000401</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1000501</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1020601</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11">
+        <v>20003</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26FFF4-D610-45E5-B2B3-E8EE6D9B7C4A}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.69921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1000101</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1000201</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1010301</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1000401</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1000501</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10206</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1020601</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8">
+        <v>101</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
+        <v>101</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="8">
+        <v>101</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameData/Excel/content_chapter.xlsx
+++ b/GameData/Excel/content_chapter.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB17DB7A-A146-4B0F-AA8C-48F907785D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9646DDE0-69B8-4D9E-8EC3-77502DF12A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12024" yWindow="7512" windowWidth="25740" windowHeight="13572" activeTab="2" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="18768" yWindow="8244" windowWidth="23568" windowHeight="13572" activeTab="3" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="content_chapter" sheetId="1" r:id="rId1"/>
     <sheet name="content_map" sheetId="2" r:id="rId2"/>
     <sheet name="content_stage" sheetId="3" r:id="rId3"/>
+    <sheet name="content_sub_shop" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
   <si>
     <t>int</t>
   </si>
@@ -354,6 +355,72 @@
   </si>
   <si>
     <t>map_group_1</t>
+  </si>
+  <si>
+    <t>테스트 용 상점 맵</t>
+  </si>
+  <si>
+    <t>shop_id</t>
+  </si>
+  <si>
+    <t>상점 ID (그룹 형)</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>그룹 내 index</t>
+  </si>
+  <si>
+    <t>item_type</t>
+  </si>
+  <si>
+    <t>enum:item_type</t>
+  </si>
+  <si>
+    <t>근원, 서포트 모듈, 어플리케이션 구분자</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>item_type의 ID</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>상품 비용(골드 차감)</t>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support_module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialog_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_101</t>
+  </si>
+  <si>
+    <t>map_desc_101</t>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -961,11 +1028,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A373D0E7-07E9-4504-A33C-B276A2B33DD8}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -974,13 +1041,13 @@
     <col min="2" max="2" width="19.8984375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11.19921875" style="3" customWidth="1"/>
     <col min="4" max="4" width="31" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" style="3" customWidth="1"/>
-    <col min="7" max="10" width="19.3984375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="3"/>
+    <col min="5" max="6" width="14.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" style="3" customWidth="1"/>
+    <col min="8" max="11" width="19.3984375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
@@ -994,25 +1061,28 @@
         <v>78</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1023,26 +1093,27 @@
       <c r="D2" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1055,14 +1126,12 @@
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>4</v>
@@ -1073,8 +1142,11 @@
       <c r="J3" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000101</v>
       </c>
@@ -1087,26 +1159,26 @@
       <c r="D4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="3">
-        <v>1001</v>
-      </c>
       <c r="F4" s="3">
         <v>1001</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000201</v>
       </c>
@@ -1119,20 +1191,20 @@
       <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1010301</v>
       </c>
@@ -1145,20 +1217,20 @@
       <c r="D6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000401</v>
       </c>
@@ -1171,20 +1243,20 @@
       <c r="D7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000501</v>
       </c>
@@ -1197,20 +1269,20 @@
       <c r="D8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1020601</v>
       </c>
@@ -1223,20 +1295,20 @@
       <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1249,20 +1321,20 @@
       <c r="D10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1275,20 +1347,20 @@
       <c r="D11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1301,20 +1373,20 @@
       <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,28 +1399,53 @@
       <c r="D13" s="11">
         <v>20003</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10001</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
@@ -1363,9 +1460,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26FFF4-D610-45E5-B2B3-E8EE6D9B7C4A}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -1615,4 +1712,163 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A41C7E9-B20E-4B3B-AEE8-E26A290B0DED}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="3"/>
+    <col min="4" max="4" width="14.296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1000103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1000103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1000103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameData/Excel/content_chapter.xlsx
+++ b/GameData/Excel/content_chapter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9646DDE0-69B8-4D9E-8EC3-77502DF12A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008AD6FA-A4EF-4D83-82ED-E4BBE5F650BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18768" yWindow="8244" windowWidth="23568" windowHeight="13572" activeTab="3" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="content_chapter" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>int</t>
   </si>
@@ -420,6 +420,10 @@
   </si>
   <si>
     <t>999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,17 +881,17 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="47" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.19921875" style="8" customWidth="1"/>
-    <col min="5" max="6" width="22.19921875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="4" max="4" width="22.25" style="8" customWidth="1"/>
+    <col min="5" max="6" width="22.25" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -907,7 +911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -925,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -945,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -956,7 +960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -967,55 +971,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
@@ -1030,24 +1034,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A373D0E7-07E9-4504-A33C-B276A2B33DD8}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="31" style="11" customWidth="1"/>
-    <col min="5" max="6" width="14.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" style="3" customWidth="1"/>
-    <col min="8" max="11" width="19.3984375" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="3"/>
+    <col min="5" max="6" width="14.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="3" customWidth="1"/>
+    <col min="8" max="11" width="19.375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
@@ -1082,7 +1086,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1130,9 @@
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000101</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1000201</v>
       </c>
@@ -1204,7 +1210,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1010301</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1000401</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1000501</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1020601</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>101</v>
       </c>
@@ -1441,11 +1447,11 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
@@ -1465,18 +1471,18 @@
       <selection pane="bottomLeft" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10001</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10002</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10103</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10004</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10005</v>
       </c>
@@ -1604,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10206</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>83</v>
       </c>
@@ -1692,19 +1698,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
@@ -1718,22 +1724,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A41C7E9-B20E-4B3B-AEE8-E26A290B0DED}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="3"/>
-    <col min="4" max="4" width="14.296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="3"/>
+    <col min="1" max="1" width="12.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="3"/>
+    <col min="4" max="4" width="14.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>95</v>
       </c>
@@ -1753,7 +1759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>96</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000103</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1000103</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1000103</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1859,7 +1865,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>

--- a/GameData/Excel/content_chapter.xlsx
+++ b/GameData/Excel/content_chapter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008AD6FA-A4EF-4D83-82ED-E4BBE5F650BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B269DAE-66F0-4B8D-95B3-C7AD05DD8053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="116">
   <si>
     <t>int</t>
   </si>
@@ -181,10 +181,6 @@
     <t>map_name_1020601</t>
   </si>
   <si>
-    <t>20003,20201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차_테스트_1막_6장_보스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +191,6 @@
     <t>map_name_1000501</t>
   </si>
   <si>
-    <t>20001,20001,20001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차_테스트_1막_5장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +201,6 @@
     <t>map_name_1000401</t>
   </si>
   <si>
-    <t>20001,20002,20003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차_테스트_1막_4장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,10 +211,6 @@
     <t>map_name_1010301</t>
   </si>
   <si>
-    <t>20101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차_테스트_1막_3장_엘리트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +229,6 @@
   </si>
   <si>
     <t>map_name_1000101</t>
-  </si>
-  <si>
-    <t>20001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1차_테스트_1막_1장</t>
@@ -424,6 +404,30 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21001,21003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21001,21002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,9 +582,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -618,7 +622,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -724,7 +728,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -866,7 +870,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -878,7 +882,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1032,11 +1036,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A373D0E7-07E9-4504-A33C-B276A2B33DD8}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1053,37 +1057,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -1092,29 +1096,29 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="9" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1125,13 +1129,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
@@ -1157,13 +1161,13 @@
         <v>1000101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F4" s="3">
         <v>1001</v>
@@ -1178,10 +1182,10 @@
         <v>22</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1189,13 +1193,13 @@
         <v>1000201</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
@@ -1204,10 +1208,10 @@
         <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1215,13 +1219,13 @@
         <v>1010301</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>23</v>
@@ -1230,10 +1234,10 @@
         <v>22</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1241,13 +1245,13 @@
         <v>1000401</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>23</v>
@@ -1256,10 +1260,10 @@
         <v>22</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1267,13 +1271,13 @@
         <v>1000501</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>23</v>
@@ -1282,10 +1286,10 @@
         <v>22</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1293,13 +1297,13 @@
         <v>1020601</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>23</v>
@@ -1426,10 +1430,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E14" s="3">
         <v>10001</v>
@@ -1441,19 +1445,11 @@
         <v>22</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1464,11 +1460,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26FFF4-D610-45E5-B2B3-E8EE6D9B7C4A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1490,16 +1486,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.3">
@@ -1508,16 +1504,16 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1545,7 +1541,7 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="8">
         <v>1000101</v>
@@ -1559,7 +1555,7 @@
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8">
         <v>1000201</v>
@@ -1573,7 +1569,7 @@
         <v>10103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8">
         <v>1010301</v>
@@ -1587,7 +1583,7 @@
         <v>10004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8">
         <v>1000401</v>
@@ -1601,7 +1597,7 @@
         <v>10005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="8">
         <v>1000501</v>
@@ -1615,7 +1611,7 @@
         <v>10206</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8">
         <v>1020601</v>
@@ -1626,13 +1622,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8">
         <v>2</v>
@@ -1640,7 +1636,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>36</v>
@@ -1652,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1660,7 +1656,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>30</v>
@@ -1672,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1680,10 +1676,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C13" s="8">
         <v>101</v>
@@ -1692,31 +1688,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1726,7 +1707,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1741,40 +1722,40 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1788,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>0</v>
@@ -1802,13 +1783,13 @@
         <v>1000103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E4" s="1">
         <v>1001</v>
@@ -1822,13 +1803,13 @@
         <v>1000103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1">
         <v>1001</v>
@@ -1842,13 +1823,13 @@
         <v>1000103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>

--- a/GameData/Excel/content_chapter.xlsx
+++ b/GameData/Excel/content_chapter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B269DAE-66F0-4B8D-95B3-C7AD05DD8053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10514B37-07D2-43D0-8407-0D49F5A6EE0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -1040,7 +1040,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1173,7 @@
         <v>1001</v>
       </c>
       <c r="G4" s="3">
-        <v>1001</v>
+        <v>12001</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>23</v>
@@ -1201,6 +1201,9 @@
       <c r="D5" s="11" t="s">
         <v>111</v>
       </c>
+      <c r="F5" s="3">
+        <v>1001</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1227,6 +1230,9 @@
       <c r="D6" s="11" t="s">
         <v>110</v>
       </c>
+      <c r="G6" s="3">
+        <v>12002</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1253,6 +1259,9 @@
       <c r="D7" s="11" t="s">
         <v>114</v>
       </c>
+      <c r="F7" s="3">
+        <v>1002</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1279,6 +1288,9 @@
       <c r="D8" s="11" t="s">
         <v>113</v>
       </c>
+      <c r="F8" s="3">
+        <v>1003</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1304,6 +1316,9 @@
       </c>
       <c r="D9" s="11" t="s">
         <v>115</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12002</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>23</v>
